--- a/MyMojioWebsite/bin/com/mojio/xls/ExportEvents.xlsx
+++ b/MyMojioWebsite/bin/com/mojio/xls/ExportEvents.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="664" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="664" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="124">
   <si>
     <t>TCID</t>
   </si>
@@ -296,9 +296,15 @@
     <t>Write the Trip Id</t>
   </si>
   <si>
+    <t>eventTripId</t>
+  </si>
+  <si>
     <t>col|Trip_Id</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>Verify the Export Button is Enabled</t>
   </si>
   <si>
@@ -308,6 +314,16 @@
     <t>eventsExportId</t>
   </si>
   <si>
+    <t>FAILUnable to locate element: {"method":"id","selector":"export-events-json-btn"}
+Command duration or timeout: 20.11 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'OPTIMUS-89', ip: '192.168.1.190', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 75d6748e-32aa-4938-b83c-8b3bbda42845</t>
+  </si>
+  <si>
     <t>Click on Back Button</t>
   </si>
   <si>
@@ -383,20 +399,21 @@
     <t>Trip_Id</t>
   </si>
   <si>
+    <t>e034d5f2-13fc-4846-bc71-972d99f403ba</t>
+  </si>
+  <si>
     <t>10/12/2014</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="GENERAL"/>
+    <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -507,7 +524,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -524,7 +541,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -552,19 +569,31 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -647,7 +676,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -761,7 +790,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -772,29 +801,29 @@
     <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -816,10 +845,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:75"/>
+  <dimension ref="1:73"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A65" activeCellId="0" pane="topLeft" sqref="A65"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C60" activeCellId="0" pane="topLeft" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1084,6 +1113,7 @@
       <c r="H11" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="AMC11" s="0"/>
       <c r="AMD11" s="0"/>
       <c r="AME11" s="0"/>
       <c r="AMF11" s="0"/>
@@ -1113,6 +1143,7 @@
       <c r="H12" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="AMC12" s="0"/>
       <c r="AMD12" s="0"/>
       <c r="AME12" s="0"/>
       <c r="AMF12" s="0"/>
@@ -1142,6 +1173,7 @@
       <c r="H13" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="AMC13" s="0"/>
       <c r="AMD13" s="0"/>
       <c r="AME13" s="0"/>
       <c r="AMF13" s="0"/>
@@ -1488,7 +1520,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1510,7 +1542,7 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1532,7 +1564,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1554,7 +1586,7 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1576,7 +1608,7 @@
         <v>58</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1593,14 +1625,14 @@
       <c r="D33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>60</v>
+      <c r="E33" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1624,7 +1656,7 @@
         <v>65</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" t="s">
+      <c r="H34" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1648,7 +1680,7 @@
         <v>69</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1660,19 +1692,19 @@
         <v>70</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1684,19 +1716,17 @@
         <v>74</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" t="s">
+      <c r="H37" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1708,64 +1738,62 @@
         <v>78</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" t="s">
+      <c r="A39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" t="s">
-        <v>120</v>
+      <c r="A40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
@@ -1773,20 +1801,20 @@
         <v>8</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1795,20 +1823,20 @@
         <v>8</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" t="s">
+      <c r="G42" s="12"/>
+      <c r="H42" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1817,20 +1845,20 @@
         <v>8</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="11"/>
-      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1839,20 +1867,22 @@
         <v>8</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="11"/>
-      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1861,20 +1891,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1883,22 +1915,20 @@
         <v>8</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1907,66 +1937,64 @@
         <v>8</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="11"/>
-      <c r="H48" t="s">
+      <c r="A48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49" t="s">
+      <c r="A49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1975,20 +2003,20 @@
         <v>9</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="9"/>
       <c r="G50" s="10"/>
-      <c r="H50" t="s">
+      <c r="H50" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1997,20 +2025,20 @@
         <v>9</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
-      <c r="H51" t="s">
+      <c r="H51" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2019,20 +2047,20 @@
         <v>9</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G52" s="10"/>
-      <c r="H52" t="s">
+      <c r="H52" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2041,20 +2069,20 @@
         <v>9</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
-      <c r="H53" t="s">
+      <c r="H53" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2063,64 +2091,64 @@
         <v>9</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" t="s">
+      <c r="H54" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
-      <c r="H55" t="s">
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G56" s="10"/>
-      <c r="H56" t="s">
+      <c r="A56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2129,20 +2157,20 @@
         <v>10</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2151,20 +2179,20 @@
         <v>10</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="10"/>
-      <c r="H58" t="s">
+      <c r="G58" s="13"/>
+      <c r="H58" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2173,20 +2201,20 @@
         <v>10</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="10"/>
-      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2195,20 +2223,22 @@
         <v>10</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="10"/>
-      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2217,20 +2247,20 @@
         <v>10</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2239,22 +2269,20 @@
         <v>10</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2263,286 +2291,242 @@
         <v>10</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
+      <c r="A64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
+      <c r="A65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
+      <c r="A66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
+      <c r="A67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
+      <c r="A68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
+      <c r="A69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
+      <c r="A70" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D70" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E70" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="10"/>
-      <c r="H63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
-      <c r="A64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="F70" s="7"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71">
+      <c r="A71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C71" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D71" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5" t="s">
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
-      <c r="A65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="G71" s="12"/>
+      <c r="H71" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
+      <c r="A72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="10"/>
-      <c r="H65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="11" t="s">
+      <c r="C72" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73">
+      <c r="A73" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="11"/>
-      <c r="H66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
-      <c r="A67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="11"/>
-      <c r="H67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
-      <c r="A68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="11"/>
-      <c r="H68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
-      <c r="A69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="11"/>
-      <c r="H69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
-      <c r="A70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B73" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="H70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71">
-      <c r="A71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" s="11"/>
-      <c r="H71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
-      <c r="A72" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="11"/>
-      <c r="H72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73">
-      <c r="A73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" s="11"/>
-      <c r="H73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74">
-      <c r="A74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75">
-      <c r="A75" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" t="s">
+      <c r="G73" s="12"/>
+      <c r="H73" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2580,16 +2564,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -2597,16 +2581,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -2643,7 +2627,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -2651,7 +2635,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -2692,28 +2676,28 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>2</v>
@@ -2721,28 +2705,28 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="13" t="n">
+        <v>118</v>
+      </c>
+      <c r="E2" s="16" t="n">
         <v>0.125</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="16" t="n">
         <v>0.833333333333333</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>4</v>
@@ -2767,7 +2751,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H1" activeCellId="0" pane="topLeft" sqref="H1"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2780,59 +2764,59 @@
     <col min="9" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2" s="16" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="F2" s="13" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>4</v>
@@ -2869,35 +2853,35 @@
     <col min="5" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -2933,23 +2917,23 @@
     <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -2974,7 +2958,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2986,29 +2970,29 @@
     <col min="5" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
